--- a/Python/pandas/cajero/clientes.xlsx
+++ b/Python/pandas/cajero/clientes.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>99900</v>
+        <v>99920</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>

--- a/Python/pandas/cajero/clientes.xlsx
+++ b/Python/pandas/cajero/clientes.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>99920</v>
+        <v>99900</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
